--- a/cueCountPerSong.xlsx
+++ b/cueCountPerSong.xlsx
@@ -44,9 +44,6 @@
     <t>songNotes</t>
   </si>
   <si>
-    <t>~cue 9: quad heavens gate                                                                                            ~cues 10, 11: quint 91 kaleids</t>
-  </si>
-  <si>
     <t>~cues 12, 13, 14: Paired Vulcan 70 shot barrages.                                                                                 ~cue 37: triple Angel Wings</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>~cues 10, 11, 14, 15, 16, 17, 18, 19 paired golden eyes from M3 and M4</t>
+  </si>
+  <si>
+    <t>~cue 9: 2 x double heavens gate                                                                                            ~cues 10, 11: quint 91 kaleids</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,10 +482,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -496,12 +496,12 @@
         <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>29</v>
@@ -510,30 +510,30 @@
     </row>
     <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>41</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="4">
-        <v>34</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4">
         <v>78</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <f>SUM(B2:B7)</f>
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/cueCountPerSong.xlsx
+++ b/cueCountPerSong.xlsx
@@ -62,7 +62,7 @@
     <t>~cues 10, 11, 14, 15, 16, 17, 18, 19 paired golden eyes from M3 and M4</t>
   </si>
   <si>
-    <t>~cue 9: 2 x double heavens gate                                                                                            ~cues 10, 11: quint 91 kaleids</t>
+    <t>~cue 9: 2 x double heavens gate                                                                                            ~cues 10, 11: 2 pairs split 2/3 on M1/M2</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>12</v>
@@ -533,7 +533,7 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <f>SUM(B2:B7)</f>
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/cueCountPerSong.xlsx
+++ b/cueCountPerSong.xlsx
@@ -447,7 +447,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>12</v>
@@ -533,7 +533,7 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <f>SUM(B2:B7)</f>
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
